--- a/preprocessing/probeGeometries/CED_E1_4X16.xlsx
+++ b/preprocessing/probeGeometries/CED_E1_4X16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Toolboxes\buzcodeMV\preprocessing\probeGeometries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58936601-7A66-41C2-826C-B084FB88EBB7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5747EC64-3DFB-4CD5-BF12-CE4A7E39F1BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6110" yWindow="3690" windowWidth="28800" windowHeight="15460" tabRatio="937" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15460" yWindow="2190" windowWidth="18320" windowHeight="15510" tabRatio="937" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="normal layout" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="36">
   <si>
     <t>SEE DERIVATION BELOW</t>
   </si>
@@ -143,18 +143,12 @@
   <si>
     <t>SHANK 2</t>
   </si>
-  <si>
-    <t>SHANK 3</t>
-  </si>
-  <si>
-    <t>SHANK 4</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -207,6 +201,12 @@
       <u/>
       <sz val="10"/>
       <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -868,7 +868,7 @@
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="43">
-        <v>300</v>
+        <v>775</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
@@ -986,32 +986,32 @@
         <v>13</v>
       </c>
       <c r="F4" s="42">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G4" s="43">
-        <v>280</v>
+        <v>750</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="41">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="K4" s="4">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="M4" s="7">
         <f t="shared" si="4"/>
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="N4" s="8">
         <f t="shared" si="5"/>
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="O4" s="8"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>13</v>
       </c>
       <c r="F5" s="42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5" s="43">
-        <v>260</v>
+        <v>725</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>13</v>
@@ -1076,32 +1076,32 @@
         <v>13</v>
       </c>
       <c r="F6" s="42">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G6" s="43">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="41">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M6" s="7">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N6" s="8">
         <f t="shared" si="5"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="O6" s="8"/>
     </row>
@@ -1121,10 +1121,10 @@
         <v>13</v>
       </c>
       <c r="F7" s="42">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G7" s="43">
-        <v>220</v>
+        <v>675</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>13</v>
@@ -1167,32 +1167,32 @@
         <v>13</v>
       </c>
       <c r="F8" s="42">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G8" s="43">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="41">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M8" s="7">
         <f t="shared" si="4"/>
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="N8" s="8">
         <f t="shared" si="5"/>
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O8" s="8"/>
       <c r="S8" s="42"/>
@@ -1213,10 +1213,10 @@
         <v>13</v>
       </c>
       <c r="F9" s="42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G9" s="43">
-        <v>180</v>
+        <v>625</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>13</v>
@@ -1259,32 +1259,32 @@
         <v>13</v>
       </c>
       <c r="F10" s="42">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G10" s="43">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="41">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L10" s="6">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M10" s="7">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N10" s="8">
         <f t="shared" si="5"/>
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="O10" s="8"/>
       <c r="S10" s="42"/>
@@ -1305,10 +1305,10 @@
         <v>13</v>
       </c>
       <c r="F11" s="42">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G11" s="43">
-        <v>140</v>
+        <v>575</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>13</v>
@@ -1351,32 +1351,32 @@
         <v>13</v>
       </c>
       <c r="F12" s="42">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="G12" s="43">
-        <v>120</v>
+        <v>550</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J12" s="41">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L12" s="6">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M12" s="7">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" si="5"/>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O12" s="8"/>
       <c r="S12" s="42"/>
@@ -1397,10 +1397,10 @@
         <v>13</v>
       </c>
       <c r="F13" s="42">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G13" s="43">
-        <v>100</v>
+        <v>525</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>13</v>
@@ -1443,33 +1443,33 @@
         <v>13</v>
       </c>
       <c r="F14" s="42">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G14" s="43">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="H14" s="36"/>
       <c r="I14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J14" s="41">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K14" s="34">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L14" s="37">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M14" s="38">
         <f t="shared" si="4"/>
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="N14" s="39">
         <f t="shared" si="5"/>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O14" s="39"/>
       <c r="P14" s="36"/>
@@ -1494,10 +1494,10 @@
         <v>13</v>
       </c>
       <c r="F15" s="42">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G15" s="43">
-        <v>60</v>
+        <v>475</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>13</v>
@@ -1540,32 +1540,32 @@
         <v>13</v>
       </c>
       <c r="F16" s="42">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G16" s="43">
-        <v>40</v>
+        <v>450</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J16" s="41">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L16" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M16" s="7">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" si="5"/>
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="O16" s="8"/>
       <c r="S16" s="42"/>
@@ -1586,10 +1586,10 @@
         <v>13</v>
       </c>
       <c r="F17" s="42">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G17" s="43">
-        <v>20</v>
+        <v>425</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>13</v>
@@ -1632,32 +1632,32 @@
         <v>13</v>
       </c>
       <c r="F18" s="42">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G18" s="43">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="41">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L18" s="6">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M18" s="7">
         <f t="shared" si="4"/>
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="N18" s="8">
         <f t="shared" si="5"/>
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="O18" s="8"/>
       <c r="S18" s="42"/>
@@ -1675,35 +1675,35 @@
         <v>31</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F19">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G19" s="43">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J19" s="41">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M19" s="7">
         <f t="shared" si="4"/>
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N19" s="8">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="O19" s="8"/>
       <c r="S19" s="42"/>
@@ -1721,35 +1721,35 @@
         <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F20">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="G20" s="43">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J20" s="41">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K20" s="4">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="M20" s="7">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="N20" s="8">
         <f t="shared" si="5"/>
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="O20" s="8"/>
       <c r="S20" s="42"/>
@@ -1767,35 +1767,35 @@
         <v>29</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F21">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="G21" s="43">
-        <v>260</v>
+        <v>325</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J21" s="41">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L21" s="6">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M21" s="7">
         <f t="shared" si="4"/>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N21" s="8">
         <f t="shared" si="5"/>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O21" s="8"/>
       <c r="S21" s="42"/>
@@ -1813,35 +1813,35 @@
         <v>28</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F22">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="G22" s="43">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J22" s="41">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K22" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="L22" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="M22" s="7">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="N22" s="8">
         <f t="shared" si="5"/>
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="O22" s="8"/>
       <c r="S22" s="42"/>
@@ -1859,35 +1859,35 @@
         <v>27</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F23">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="G23" s="43">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J23" s="41">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K23" s="4">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L23" s="6">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M23" s="7">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N23" s="8">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="O23" s="8"/>
     </row>
@@ -1904,35 +1904,35 @@
         <v>26</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F24">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="G24" s="43">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J24" s="41">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K24" s="4">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="L24" s="6">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
         <f t="shared" si="4"/>
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N24" s="8">
         <f t="shared" si="5"/>
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="O24" s="8"/>
     </row>
@@ -1949,35 +1949,35 @@
         <v>25</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F25">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="G25" s="43">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J25" s="41">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K25" s="4">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="M25" s="7">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="N25" s="8">
         <f t="shared" si="5"/>
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
     </row>
@@ -1994,37 +1994,37 @@
         <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E26" s="36"/>
       <c r="F26">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G26" s="43">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H26" s="36"/>
       <c r="I26" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J26" s="41">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K26" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26" s="37">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M26" s="38">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N26" s="39">
         <f t="shared" si="5"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O26" s="39"/>
       <c r="P26" s="36"/>
@@ -2046,35 +2046,35 @@
         <v>23</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F27">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="G27" s="43">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J27" s="41">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K27" s="4">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L27" s="6">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M27" s="7">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N27" s="8">
         <f t="shared" si="5"/>
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="O27" s="8"/>
     </row>
@@ -2091,35 +2091,35 @@
         <v>22</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F28">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="G28" s="43">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J28" s="41">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K28" s="4">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="L28" s="6">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M28" s="7">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="N28" s="8">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
     </row>
@@ -2136,35 +2136,35 @@
         <v>21</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F29">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="G29" s="43">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J29" s="41">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K29" s="4">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L29" s="6">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M29" s="7">
         <f t="shared" si="4"/>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="N29" s="8">
         <f t="shared" si="5"/>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
     </row>
@@ -2181,35 +2181,35 @@
         <v>20</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F30">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="G30" s="43">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J30" s="41">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K30" s="4">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L30" s="6">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M30" s="7">
         <f t="shared" si="4"/>
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N30" s="8">
         <f t="shared" si="5"/>
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="O30" s="8"/>
     </row>
@@ -2226,35 +2226,35 @@
         <v>19</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F31">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="G31" s="43">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J31" s="41">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K31" s="4">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="L31" s="6">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="M31" s="7">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="N31" s="8">
         <f t="shared" si="5"/>
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="O31" s="8"/>
     </row>
@@ -2271,35 +2271,35 @@
         <v>18</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F32">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="G32" s="43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J32" s="41">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K32" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L32" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M32" s="7">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N32" s="8">
         <f t="shared" si="5"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="O32" s="8"/>
     </row>
@@ -2316,35 +2316,35 @@
         <v>17</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F33">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="G33" s="43">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J33" s="41">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="K33" s="4">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="L33" s="6">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="M33" s="7">
         <f t="shared" si="4"/>
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="N33" s="8">
         <f t="shared" si="5"/>
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="O33" s="8"/>
     </row>
@@ -2361,35 +2361,35 @@
         <v>16</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F34">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="G34" s="43">
         <v>0</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J34" s="41">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="K34" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L34" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M34" s="7">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="N34" s="8">
         <f t="shared" si="5"/>
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="O34" s="8"/>
     </row>
@@ -2406,16 +2406,16 @@
         <v>15</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F35" s="42">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G35" s="43">
-        <v>300</v>
+        <v>775</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J35" s="41">
         <v>12</v>
@@ -2451,35 +2451,35 @@
         <v>14</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F36" s="42">
-        <v>562</v>
+        <v>200</v>
       </c>
       <c r="G36" s="43">
-        <v>280</v>
+        <v>750</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J36" s="41">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="K36" s="4">
         <f t="shared" si="8"/>
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="L36" s="6">
         <f t="shared" si="9"/>
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="M36" s="7">
         <f t="shared" si="10"/>
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="N36" s="8">
         <f t="shared" si="11"/>
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="O36" s="8"/>
     </row>
@@ -2496,16 +2496,16 @@
         <v>13</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F37" s="42">
-        <v>504</v>
+        <v>200</v>
       </c>
       <c r="G37" s="43">
-        <v>260</v>
+        <v>725</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J37" s="41">
         <v>53</v>
@@ -2541,37 +2541,37 @@
         <v>12</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E38" s="36"/>
       <c r="F38" s="42">
-        <v>557</v>
+        <v>200</v>
       </c>
       <c r="G38" s="43">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="H38" s="36"/>
       <c r="I38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J38" s="41">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="K38" s="34">
         <f t="shared" si="8"/>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="L38" s="37">
         <f t="shared" si="9"/>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M38" s="38">
         <f t="shared" si="10"/>
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="N38" s="39">
         <f t="shared" si="11"/>
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="O38" s="39"/>
       <c r="P38" s="36"/>
@@ -2593,16 +2593,16 @@
         <v>11</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F39" s="42">
-        <v>507</v>
+        <v>200</v>
       </c>
       <c r="G39" s="43">
-        <v>220</v>
+        <v>675</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J39" s="41">
         <v>4</v>
@@ -2638,35 +2638,35 @@
         <v>10</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F40" s="42">
-        <v>554</v>
+        <v>200</v>
       </c>
       <c r="G40" s="43">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J40" s="41">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K40" s="4">
         <f t="shared" si="8"/>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="L40" s="6">
         <f t="shared" si="9"/>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M40" s="7">
         <f t="shared" si="10"/>
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="N40" s="8">
         <f t="shared" si="11"/>
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O40" s="8"/>
     </row>
@@ -2683,16 +2683,16 @@
         <v>9</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F41" s="42">
-        <v>510</v>
+        <v>200</v>
       </c>
       <c r="G41" s="43">
-        <v>180</v>
+        <v>625</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J41" s="41">
         <v>14</v>
@@ -2728,37 +2728,37 @@
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E42" s="36"/>
       <c r="F42" s="42">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="G42" s="43">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="H42" s="36"/>
       <c r="I42" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J42" s="41">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K42" s="34">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L42" s="37">
         <f t="shared" si="9"/>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M42" s="38">
         <f t="shared" si="10"/>
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="N42" s="39">
         <f t="shared" si="11"/>
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="O42" s="39"/>
       <c r="P42" s="36"/>
@@ -2780,16 +2780,16 @@
         <v>7</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F43" s="42">
-        <v>514</v>
+        <v>200</v>
       </c>
       <c r="G43" s="43">
-        <v>140</v>
+        <v>575</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J43" s="41">
         <v>51</v>
@@ -2825,35 +2825,35 @@
         <v>6</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F44" s="42">
-        <v>547</v>
+        <v>200</v>
       </c>
       <c r="G44" s="43">
-        <v>120</v>
+        <v>550</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J44" s="41">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="K44" s="4">
         <f t="shared" si="8"/>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L44" s="6">
         <f t="shared" si="9"/>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M44" s="7">
         <f t="shared" si="10"/>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N44" s="8">
         <f t="shared" si="11"/>
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="O44" s="8"/>
     </row>
@@ -2870,16 +2870,16 @@
         <v>5</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F45" s="42">
-        <v>517</v>
+        <v>200</v>
       </c>
       <c r="G45" s="43">
-        <v>100</v>
+        <v>525</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J45" s="41">
         <v>3</v>
@@ -2915,35 +2915,35 @@
         <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F46" s="42">
-        <v>543</v>
+        <v>200</v>
       </c>
       <c r="G46" s="43">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J46" s="41">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K46" s="4">
         <f t="shared" si="8"/>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="L46" s="6">
         <f t="shared" si="9"/>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M46" s="7">
         <f t="shared" si="10"/>
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="N46" s="8">
         <f t="shared" si="11"/>
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O46" s="8"/>
     </row>
@@ -2960,16 +2960,16 @@
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F47" s="42">
-        <v>521</v>
+        <v>200</v>
       </c>
       <c r="G47" s="43">
-        <v>60</v>
+        <v>475</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J47" s="41">
         <v>15</v>
@@ -3005,35 +3005,35 @@
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F48" s="42">
-        <v>540</v>
+        <v>200</v>
       </c>
       <c r="G48" s="43">
-        <v>40</v>
+        <v>450</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J48" s="41">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="K48" s="4">
         <f t="shared" si="8"/>
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L48" s="6">
         <f t="shared" si="9"/>
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="M48" s="7">
         <f t="shared" si="10"/>
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="N48" s="8">
         <f t="shared" si="11"/>
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="O48" s="8"/>
     </row>
@@ -3050,16 +3050,16 @@
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F49" s="42">
-        <v>524</v>
+        <v>200</v>
       </c>
       <c r="G49" s="43">
-        <v>20</v>
+        <v>425</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J49" s="41">
         <v>1</v>
@@ -3095,35 +3095,35 @@
         <v>0</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F50" s="42">
-        <v>532</v>
+        <v>200</v>
       </c>
       <c r="G50" s="43">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J50" s="41">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="K50" s="4">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="L50" s="6">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M50" s="7">
         <f t="shared" si="10"/>
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="N50" s="8">
         <f t="shared" si="11"/>
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="O50" s="8"/>
     </row>
@@ -3140,35 +3140,35 @@
         <v>63</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F51" s="42">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="G51" s="43">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J51" s="41">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="K51" s="4">
         <f t="shared" si="8"/>
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="L51" s="6">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="M51" s="7">
         <f t="shared" si="10"/>
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="N51" s="8">
         <f t="shared" si="11"/>
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="O51" s="8"/>
     </row>
@@ -3185,35 +3185,35 @@
         <v>62</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F52" s="42">
-        <v>812</v>
+        <v>200</v>
       </c>
       <c r="G52" s="43">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J52" s="41">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="K52" s="4">
         <f t="shared" si="8"/>
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="L52" s="6">
         <f t="shared" si="9"/>
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="M52" s="7">
         <f t="shared" si="10"/>
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="N52" s="8">
         <f t="shared" si="11"/>
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="O52" s="8"/>
     </row>
@@ -3230,35 +3230,35 @@
         <v>61</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F53" s="42">
-        <v>754</v>
+        <v>200</v>
       </c>
       <c r="G53" s="43">
-        <v>260</v>
+        <v>325</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J53" s="41">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="K53" s="4">
         <f t="shared" si="8"/>
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="L53" s="6">
         <f t="shared" si="9"/>
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="M53" s="7">
         <f t="shared" si="10"/>
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="N53" s="8">
         <f t="shared" si="11"/>
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="O53" s="8"/>
     </row>
@@ -3275,37 +3275,37 @@
         <v>60</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E54" s="36"/>
       <c r="F54" s="42">
-        <v>807</v>
+        <v>200</v>
       </c>
       <c r="G54" s="43">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="H54" s="36"/>
       <c r="I54" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J54" s="41">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K54" s="34">
         <f t="shared" si="8"/>
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L54" s="37">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="M54" s="38">
         <f t="shared" si="10"/>
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="N54" s="39">
         <f t="shared" si="11"/>
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="O54" s="39"/>
       <c r="P54" s="36"/>
@@ -3327,35 +3327,35 @@
         <v>59</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F55" s="42">
-        <v>757</v>
+        <v>200</v>
       </c>
       <c r="G55" s="43">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J55" s="41">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="K55" s="4">
         <f t="shared" si="8"/>
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="L55" s="6">
         <f t="shared" si="9"/>
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="M55" s="7">
         <f t="shared" si="10"/>
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="N55" s="8">
         <f t="shared" si="11"/>
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="O55" s="8"/>
     </row>
@@ -3372,35 +3372,35 @@
         <v>58</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F56" s="42">
-        <v>804</v>
+        <v>200</v>
       </c>
       <c r="G56" s="43">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J56" s="41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K56" s="4">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L56" s="6">
         <f t="shared" si="9"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M56" s="7">
         <f t="shared" si="10"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N56" s="8">
         <f t="shared" si="11"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O56" s="8"/>
     </row>
@@ -3417,35 +3417,35 @@
         <v>57</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F57" s="42">
-        <v>760</v>
+        <v>200</v>
       </c>
       <c r="G57" s="43">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J57" s="41">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K57" s="4">
         <f t="shared" si="8"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="L57" s="6">
         <f t="shared" si="9"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M57" s="7">
         <f t="shared" si="10"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="N57" s="8">
         <f t="shared" si="11"/>
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O57" s="8"/>
     </row>
@@ -3462,35 +3462,35 @@
         <v>56</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F58" s="42">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="G58" s="43">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J58" s="41">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K58" s="4">
         <f t="shared" si="8"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L58" s="6">
         <f t="shared" si="9"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M58" s="7">
         <f t="shared" si="10"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N58" s="8">
         <f t="shared" si="11"/>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O58" s="8"/>
     </row>
@@ -3507,35 +3507,35 @@
         <v>55</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F59" s="42">
-        <v>764</v>
+        <v>200</v>
       </c>
       <c r="G59" s="43">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J59" s="41">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K59" s="4">
         <f t="shared" si="8"/>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L59" s="6">
         <f t="shared" si="9"/>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M59" s="7">
         <f t="shared" si="10"/>
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="N59" s="8">
         <f t="shared" si="11"/>
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="O59" s="8"/>
     </row>
@@ -3552,35 +3552,35 @@
         <v>54</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F60" s="42">
-        <v>797</v>
+        <v>200</v>
       </c>
       <c r="G60" s="43">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J60" s="41">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="K60" s="4">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="L60" s="6">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M60" s="7">
         <f t="shared" si="10"/>
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="N60" s="8">
         <f t="shared" si="11"/>
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="O60" s="8"/>
     </row>
@@ -3597,35 +3597,35 @@
         <v>53</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F61" s="42">
-        <v>767</v>
+        <v>200</v>
       </c>
       <c r="G61" s="43">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J61" s="41">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K61" s="4">
         <f t="shared" si="8"/>
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L61" s="6">
         <f t="shared" si="9"/>
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M61" s="7">
         <f t="shared" si="10"/>
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N61" s="8">
         <f t="shared" si="11"/>
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="O61" s="8"/>
     </row>
@@ -3642,35 +3642,35 @@
         <v>52</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F62" s="42">
-        <v>793</v>
+        <v>200</v>
       </c>
       <c r="G62" s="43">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J62" s="41">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="K62" s="4">
         <f t="shared" si="8"/>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="L62" s="6">
         <f t="shared" si="9"/>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M62" s="7">
         <f t="shared" si="10"/>
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="N62" s="8">
         <f t="shared" si="11"/>
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="O62" s="8"/>
     </row>
@@ -3687,35 +3687,35 @@
         <v>51</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F63" s="42">
-        <v>771</v>
+        <v>200</v>
       </c>
       <c r="G63" s="43">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J63" s="41">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K63" s="4">
         <f t="shared" si="8"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L63" s="6">
         <f t="shared" si="9"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M63" s="7">
         <f t="shared" si="10"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N63" s="8">
         <f t="shared" si="11"/>
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O63" s="8"/>
     </row>
@@ -3732,35 +3732,35 @@
         <v>50</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F64" s="42">
-        <v>790</v>
+        <v>200</v>
       </c>
       <c r="G64" s="43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J64" s="41">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K64" s="4">
         <f t="shared" si="8"/>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L64" s="6">
         <f t="shared" si="9"/>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M64" s="7">
         <f t="shared" si="10"/>
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N64" s="8">
         <f t="shared" si="11"/>
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O64" s="8"/>
     </row>
@@ -3777,35 +3777,35 @@
         <v>49</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F65" s="42">
-        <v>774</v>
+        <v>200</v>
       </c>
       <c r="G65" s="43">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J65" s="41">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K65" s="4">
         <f t="shared" si="8"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L65" s="6">
         <f t="shared" si="9"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M65" s="7">
         <f t="shared" si="10"/>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N65" s="8">
         <f t="shared" si="11"/>
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O65" s="8"/>
     </row>
@@ -3822,35 +3822,35 @@
         <v>48</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F66" s="42">
-        <v>782</v>
+        <v>200</v>
       </c>
       <c r="G66" s="43">
         <v>0</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J66" s="41">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K66" s="4">
         <f t="shared" si="8"/>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L66" s="6">
         <f t="shared" si="9"/>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M66" s="7">
         <f t="shared" si="10"/>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N66" s="8">
         <f t="shared" si="11"/>
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O66" s="8"/>
     </row>
@@ -6119,6 +6119,7 @@
     <mergeCell ref="A89:E89"/>
     <mergeCell ref="A91:D91"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A89" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
